--- a/financial_statements.xlsx
+++ b/financial_statements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Block</t>
   </si>
@@ -48,85 +48,43 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>2023-08-12 21:41:51</t>
-  </si>
-  <si>
-    <t>2023-08-12 21:42:03</t>
-  </si>
-  <si>
-    <t>2023-08-12 21:45:11</t>
-  </si>
-  <si>
-    <t>2023-08-12</t>
-  </si>
-  <si>
-    <t>2023-08-15</t>
+    <t>2023-08-16 15:45:43</t>
+  </si>
+  <si>
+    <t>2023-08-16</t>
   </si>
   <si>
     <t>Assets</t>
   </si>
   <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Genesis block</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>49e74e9ffd738bbe02c7bfcfd8ca39ae6dd30a4626796fdf4c7cba4b180e789ce42a8eaffe6f2b2bc539d267aef61a32bc00e7ac72f8ee7a6e2f1920f8f231fbe7f60adb510f57fd246c31f19aeedce5e62ab145459f34be713c784d337e3e9991f3e0991a06aa77ae7f425f87ba82b9f45f6f4121b6fd9c54c857f735a1b7560c7aaf3f7effa9416dfd90596589af22008258806993b7e15770830010661a5e7d2d14d9f756bdd899b3a538aba0fc52e864e63a735a8a2f70ea8746fd08b849e526f14c264b9ebfa22036d443f1d8ac9403ea0f19bd3286ecca07cf89ecb209495b784265d5fff1a37cd2501572ca4e04c0dbc6b00a33931b41655efb6791ed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
     <t>Expenses</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Misc expenses</t>
-  </si>
-  <si>
-    <t>Tea bottles</t>
-  </si>
-  <si>
-    <t>Genesis block</t>
-  </si>
-  <si>
-    <t>Test TB</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>79b2a0ad26eb6d2f5e91a0e09f7f86713bd0d5624a3ce4a9ac46e20803ded2f03ac1cbd4926718e0335632c12cea68ca8291594f29fe989cf4d92c6b60a42f36a75849cbc5a3883808fa34a656388d32f81cbb711ff1fc71e8934c9326d43aa701e494813654d72a98fd898d762500870226221c796309679cb74cbfa41be23ead50a0c26669c6d1331199a9abe6dcdd6d7e354376e2e162e78e7be44e760c8755e68913976e5c3ba03e54f6d77d7d694c31f7b21d82ff7494632431045646165fa37c03e2f094b49b3445ac910368228740fc16ad7516ec5467919836db377ec0cb69b89830ce9d03cc79348adf073e30f15697f1e8957c42f9f90753260f64</t>
-  </si>
-  <si>
-    <t>2a5609b6fba7f937f7244226c3a1003ecc1b66b682d1dd43283f96c2b77fe4835c510d6f8964b873469741209289228de29c026246832802c0cd4f375d3c8b05d790e863b26441b21bcd923f33bfdc4e3717aa68c349c663ddb14b67538924c944cbbcaa21501af3ae5de864aa8aed6c43f88783518c850178b2a8c4e32eeb6bf1b25becb9765452966dd65db79e3c45ac150f95b0b22819669fa82dd5c53e38a8d70a759c06e682b9092c886610c1b7121263d4eacb97c7d5b1dbe192422fc4b1a54e1bda6aceabeb1e49c5d608f38d905eb6a2f617042b5d60704f8f4c68e415dfa0ed46f031693059f9f48c1013bc6745e9a3f330e7c04fc5a25fc5f2ab21</t>
-  </si>
-  <si>
-    <t>109fd6ad74f364ad3b5c5672d2d44f06f31980cf67dadbb3b5057b8dd26e6dd64385efab1b0b2cb9a22ccd9564ecb3787b9683c82997edcb24226c3ee92b6a53f8c8d6331a4bad25261c820617ea069ca7f3da626a019184ba4224b09015b432e60d2cca10925a12b5e33d30235abfd6f7e9ec05e4880da9f06908a9c30bf378073961e3c64b8a0b69fe7fcb55ca282ce8a50b3a09418201757bc791bb459e02bd5062f3ab5061f431fa5b7104408e84877d9e827c17977e9b75a5d0d54273719765f62c809f48d67b99937ff514512b8e347ea8312a1b6c0b58a46236fc739a62cd3606b82de77ad7b7325cb39f9acfba0896149f14183926da8ea81c5d2b93</t>
-  </si>
-  <si>
-    <t>6c49f8f4febd00649e40d385242d10af6b507036256ae023ebb42245af698a7b60f6dd7dd1e41189e6fa6e6dfb688de5c0bf110fc812214752596b30fa1ebda90cfa32bbf3adbef55d2c491b0dc8387e9e0c52ca3b16ae66c9e69face3a1a3b4bfbd8f7c64749504c78f06026b423d82e31eb1bd673ca0dd249cdfd6e6e44c13bf3a221c3bc711ac2c3ce0c1effe8f8474502b56e855bee145d3f5272057360f48ecc6c3ce79d72a30cadea96df323aa30a66b670c2653a0f2449ef3df3cf43a85d136356d2fde82aec0dd0275c7a7005b1a9d5b631f8d5bb2d8be1a05cd7528324e8dc2f2ea76a9ab31cc936df06d02609c06ac57755aa3096db3c0d21cab65</t>
-  </si>
-  <si>
-    <t>156dd6a5fec5a7061329cecbb240ad133c2118bca18808d42abaf43788db7a5c5e71ec70110fd21ccfd9e4d26d5068682543f8fc2700f9fe8b52a4ee82f9f9405e7f8cfc0ee7805f7ef67b4458f935a8527b3577d7bea7894333fb3649b2d951d2423d86e3a1fcaf0bb735a8e48dd5079e0c5dc8ae3a1e9f26e56ddd934c697c0cd4f5e3efbdb267e090dc6ff23a7e2879dd0a9a2215e0f909a23b8fdfd4bdcc51a09edb5e1df281766a6edc9dbd009b347eea2acaefb24edfcb576bc00a67ee764b95444fc56c98f5731f08a772de7b9358fcaff2335beedf082cc79ad61151fd2374879b3e1b1bba0071eec6c367b20059ecb20a9ed6b3e2be73c6aa31fd6c</t>
-  </si>
-  <si>
-    <t>16516e164fd8043381c449dfcc0c457b5b1013733baf6585de00cb1dc1cd4471ef852ca7844213204933c4b585fca67edc764cfc273a80a48689c635d64f77cd6c34b5f0328442fba0194039f90d7c294851549a071beaeb6c850d0bfcf886962039a25fcc279c00340b01df35af7b3dd7410670ed3033cb8c562e9e2b7e5968b4ea29b87bca39b6a180ef287ce402f81dbbc3dcf07b90d535e91ccc54e07f57798b92a0d87b9fa457ae726d493ae91e896397fb45a71b9ccf1a34333a29e182bb140e2d63550a224f2de245ec533a23355e3c8123c6e6a7ee305a618009b912c8342da649be28795f7ec12beeb9bca90d59c2adc2443ae41204f7ef2115041a</t>
-  </si>
-  <si>
-    <t>9aeebe3e1e65d0dfa7b989035e41198050b41a5955a41f396fee5f08dd54cf72bf86206c80b1448787c528d910ac92439eb27a4710abc7937440081b34c9717da44b93dd4d0fc9e085c944acae776a93ad6885ccc338009e424ad7aaf1044141530f70a1979ff3be5ab6da6d7c5eeabf6b98f31bef145f68f1e6fbf845cfff16e7679d1bff9a3b75637ee2b985d668e7d982d114d3cbd529d03117d0eab547f0a21eef3a9bc5c02365a8a23f72e960287b4777bff82693ce5d49c115294f4dd8e5af1f58244795c6f8c6782a2aa5b7030dabba765a593ad95f8f941591fd8f13eb617629632b136276b09f1777cc2768176bae1d7b6b6496c196ddf63ee7c354</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>Equity</t>
-  </si>
-  <si>
-    <t>Revenue</t>
-  </si>
-  <si>
     <t>Net Income</t>
-  </si>
-  <si>
-    <t>Misc Expenses</t>
-  </si>
-  <si>
-    <t>Tea Bottles</t>
   </si>
   <si>
     <t>Total Revenue</t>
@@ -490,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,238 +497,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
       <c r="K2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>50</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>50</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>50</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -788,31 +536,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -820,10 +568,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,53 +589,37 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6">
-        <v>-200</v>
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/financial_statements.xlsx
+++ b/financial_statements.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="65">
   <si>
     <t>Block</t>
   </si>
@@ -48,27 +48,135 @@
     <t>Signature</t>
   </si>
   <si>
-    <t>2023-08-16 15:45:43</t>
+    <t>2023-08-16 17:45:43</t>
+  </si>
+  <si>
+    <t>2023-08-16 17:45:58</t>
+  </si>
+  <si>
+    <t>2023-08-16 18:35:45</t>
+  </si>
+  <si>
+    <t>2023-08-16 20:39:11</t>
+  </si>
+  <si>
+    <t>2023-08-16 20:45:04</t>
   </si>
   <si>
     <t>2023-08-16</t>
   </si>
   <si>
+    <t>2023-08-15</t>
+  </si>
+  <si>
     <t>Assets</t>
   </si>
   <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
     <t>Cash</t>
   </si>
   <si>
+    <t>Misc expenses</t>
+  </si>
+  <si>
+    <t>Tea bottles</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Tea sales</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Tea ingredients</t>
+  </si>
+  <si>
+    <t>Farmer market sales</t>
+  </si>
+  <si>
+    <t>Labor</t>
+  </si>
+  <si>
     <t>Genesis block</t>
   </si>
   <si>
+    <t>Test TB</t>
+  </si>
+  <si>
+    <t>Recording One Week Sales &amp; Expenses</t>
+  </si>
+  <si>
     <t>James</t>
   </si>
   <si>
     <t>49e74e9ffd738bbe02c7bfcfd8ca39ae6dd30a4626796fdf4c7cba4b180e789ce42a8eaffe6f2b2bc539d267aef61a32bc00e7ac72f8ee7a6e2f1920f8f231fbe7f60adb510f57fd246c31f19aeedce5e62ab145459f34be713c784d337e3e9991f3e0991a06aa77ae7f425f87ba82b9f45f6f4121b6fd9c54c857f735a1b7560c7aaf3f7effa9416dfd90596589af22008258806993b7e15770830010661a5e7d2d14d9f756bdd899b3a538aba0fc52e864e63a735a8a2f70ea8746fd08b849e526f14c264b9ebfa22036d443f1d8ac9403ea0f19bd3286ecca07cf89ecb209495b784265d5fff1a37cd2501572ca4e04c0dbc6b00a33931b41655efb6791ed</t>
   </si>
   <si>
+    <t>0a70cd72b198780a4d85723f3bb2c176f62cff2be6862c3169831196ceab518cec3163d641c0e576ecbe8e9667df6a830ccee365d313e586aae1ec7bc84016ad785ee6647a52a2cc3da318c6cd27cdc0994cbd1e28b6f8bc381fb9b81835cfba09b8d5837611e8efe527c8bf3c44f6638f7c559c39f7ccd7cd82e66cdcd54bb47e39454a448b1f27b91d06ee6cdfcf6960ca3ba38c76f7749682b5e6dd38a0567098b8e802a64ba04ce729be9eb70e28fbea0d9dbf3061998e1e84deda9abb1cdd96e8cae825dc9ae9ea91acda1434efd28cfc937e9952be2f217aceb03905e6b84a9f469edacee35f53703e8a84a698257b357756fde7618abdf52c774b433f</t>
+  </si>
+  <si>
+    <t>715f5069a88ebfce7cd85d38d272ea74a8bf10456d5afb33bdc406ff1d9c43184c80ff0717a4c1cc2c8cffcffb8be199fc06dcc135a725d6444b72fc616de833c25a0d1d599c5bd20f2e395c9b968c4abb70e27d4997c6b12c1f98c1c90ff2fd3b74b6f65d72ebd7c683b0e0529b3625833aac75b368379aafc9c5cbc45ce0f4d24bb80d1fed5f1bef867842cc217a97794a96a4c115850cc41e4aff70ca3c0e8a76a396002b39c416a9390dcbd57f1bb1f1b083407ad3edb0ab02c6a88e35a1ed47a215b123fe39a2e9de0adfd1718880e1c2646daab74eac74b410d5675fffebc2c0a7efcae6df6facaf0785f16d5294dcc128fcda7cd877258d79e0ab460c</t>
+  </si>
+  <si>
+    <t>0e9d7b0ebae77cc542899e1edcb488a2e168a09dea797cafe4d0e95c65793ab6d4aeecc2b1c1800690e0c930b5c19bdd57639446320998299aff9260537f3602b030bc70e5272e740af6ec6c659dc33cce82deded1ab892e0c2d1cabe30fe904ba50571c012bfe9e7c419e9234922e645d73838cd590fa4c2611fa69785a06642fcb57dbc876e3e017f0b7e283f1f0df730f773bea9f259dff9f711e6f2a4d5269e35fe0254feb59b2d9db8fc9fe5af2e3b7611b5af122eb42c2a9387d084705d6303c35b78a67ca941d9ec008d3250ba1a1acd2b2bb7098c4fa3baa58c902a4aab299381fd8aedc5b00cfbf102565247eae4e18f9c5632fc2bda781bba2b051</t>
+  </si>
+  <si>
+    <t>73643fdf04ed667174f51be34019a000aac1401b89e73422c6d096aee3b4c6e6c5611480fc20ed81f1a0505385d031c8426a1f6d122546d01aa37399e0d767eb654b5185d65bf2bd4f34657b32a4c403f81b7025f6e49736fb469a7e617b699a558e3054a8f9056e260d675fbcafb126507f8f1a21b5d1603bec075ea4cf27c803d4f2dbf3a803c55a0bcae318f42183f1b94714437620806b7365c5dafda54718723d0e606d0ee1aa5148ec3ae6fd2f823d6d40eb91a05f68cd596f59c0ef8bc1151adaa9150455406431a01b8bced7326c5cecba8fb27d33ec56719bfc79af8266dded6af4c21bd067d37ea59648a7957dbdb510e4955045448295dc347672</t>
+  </si>
+  <si>
+    <t>c8afac5139c5cc653791cbeda874d4c7c9a1c518af83388a043827a12108539a3d0797a57c706baedd635e87ebb4c38d5bb9af2679d1fac8e7b128ed6abe6b86385233d4e686439c4be4c14a59683986c96a498d340e1bd51a89c5da254c39c21f831ff69ebad93c0ddcd86a5fabb523fcac89014135fd9adb3ea868a8a6170c86b5f7690e629eb1e01ee58a14738818de56dfc38090d501d3436bd04ad8ce03375a7375c5e0b82819d8ad4fcfa83b2c13ba70c9edb7dade1c45a44ff9dd0fad4cdb6eefef3aa7ab203c413f4adbd19f671aff322d254de14190103262171b02af2b852c929e1ebd354a4f4162832d476e3f8cc9f28f2ce10a1476a58612ea94</t>
+  </si>
+  <si>
+    <t>ac64a799bb0d52c310efb655f898ae44e7ae9d860a8c9113c10dd6961a919720010e0e2fb21cf23a43e060ea155c10b29f6d7d9bc072b685b45492293afe050dd20bf6833145f46ff4e4e556f68911f37dcbf2912b570b67aec396aa7b826c3841743932efd926f9500a4516a1c1c2d278999ccacc9f2dcfc069f5f0299bc50a244eaf94672e1d8692df119c58ca57db46359f244b2a57a1058579f04936ebb4127a285c21fe485089a165fde7be2935cc52df7528307e61e927520d9ddc3cc18157691e04efd2880f66f8bb165481b7bbc2b041bafa22e71e81f319e30f080777f6f563e31ab086474e7f05a432e1449ce18a9c6cf5f390d6f1293466627156</t>
+  </si>
+  <si>
+    <t>a649ee8d1371673810a4801b045455a7a5bedb6fc8685a4da07e7a97e7b66527d80301a9b6e922345a26cb78c6198078e12dc115fe4803850be37faadac2d00d5546260e3d0ea351c54d09b755d355e1d62148c1debf74354c993585bff5bd8982d6247f681bb4cb81a7eabfd34b0fa79d85a3274bcc3d5665f303063fc5b2ef78314d9737deb016155272e70179f3e88b5cccd3d33b018bd8ecaf8b306ff5d8c31a4135362ee839309f02cabdb3c515d928589bd246ff9ecd8e4040781b7ed85f11124f6c7f26de308b00e4ef676e2739da841f47acb795128694fbeba2fef65812c9efe702d9fac1551315f065aa8146ccae70fb7a70ff87dade626a082c6e</t>
+  </si>
+  <si>
+    <t>41c64676f1e01259f1ee9decab6c9525bfbf126f87778aed5105d2c54ca47c9903656bd45b5b52a88a8604ec7bed9754b4d97b8ebe67737c8157612abbed6cc848f39d4aed5bc80e9a476fdd10a447dbeedfba381d02e515d207e14782cc80136f074162d5c018334b9f384d6e4f93ea615d8c91f6306a8acfd46e9ff2df189f16ba2ea8010c7cad191c0f95451180fca69c1b36b668f15f12f0cc3d22512cefad9e2b7480ab2f23d7faa37a5d5417b592337acb571e21bcb5fb65987da26fb5eddaeebbcc0b421e6133a54ec325dd46e2154c6727bbcc6a4d31079b855cc21186b181aa3634e6db26d16252643791b0253f2ffaa8a6ecf0e7c299e0456be6a9</t>
+  </si>
+  <si>
+    <t>893e3426f6c9e44dfedef187e4eddf3f774fa82d674fa09a26c2302034029b40303afeece97c59cc74baba4777ed6b84db95f42b00c102e0e91f2fda4ae1dd32f7d417f43f3f8ccda51fbff6a12d28ecca0f2c6c9834a8aecfcc3df63a3d691c3e942f8f75e097070d61ccf8be5b971d8db849e9d624e3becd58c40ddc475759d25f1aad35ebf1c4d14b0e642e246564f48f8c3d9cb8e4fc08827cdfecb1f5198df145979a802926bc5d32b015b587d26cfe8f571ce35c10ff64720c70df9ef03a4716c11bbfa5c7d3b618c6b29d4175be4efc5184b70ccff11640ab4b58246592f385295d03b63225bd8960c7296df4af9f0b841f74037ba0c9043d9d70d034</t>
+  </si>
+  <si>
+    <t>9cbb995796749e1c89c6d7e866691de551122624d96be101b326ef32001bdd956e02083af8362f5c7fb5ce5db94dd24d7e50ebd4a306b5c50b73c57c6b8ddcf42d722b163c48d487092566d4765ee1ef2250e8ff5a72bc362d5a18b78571180e9bf1b90578a0241320d274e68743be0c93deede336f56b81e32f8caf87a8afa9f2f59d3ab8820acd31cf5d65dad1b5f050f97fc442ceac5e585d014f78aed9ba7718cb77b352d6ac036a55e7b538d1757dace3193daa4b704625cf88be610aa45bb4f1c077e9b61d6c51ef41ccab4129a73a5b49abdebf2a29cfdd3f74d63b5b3b964a44685af3ccbc13ee105379a587edb6c89d82cf9f6155f5a21363d08d5d</t>
+  </si>
+  <si>
+    <t>693d0b8d69a3545606d35794854ce4628028d17f84db75486bdfb71e324e4197bba85b44527982190144fa7ede744357bc35bd1599b98e1f643aed8d17616f5cfef53156fee50ade4f270c8ca16f660c8edf92d7aa515c4fb38ea17a4f3a7671c7a3798ffe2bac77d91abf3d31e80d2f56518c5c67de5e94b558ec8d5afe8436c07470427254fd6fca501c6996fb4dd7d0400cb22473b1aa89c51dd11c3456754e34f8a509c44563365be6a9cac4d5b07f7a265fcf171a5a7f691ac1e33ca5d7f4f6913b810c02b18df3e70864f02577f978166415ce423255c1ed1ebfe085ec221007e633b427c8cea4e70fc7a11b316de5e08ba56c6472df90592b8971d847</t>
+  </si>
+  <si>
+    <t>03f193ff64bb37cf9afac71becda454812f72c77dd353a286f98077baa237f82fb34222fa9101035a31d5a4034fb1dfcef831fa9cef9acfd0f54aecf7b325667cecc67f22a2d426ad945e8ba9c382ac6fa3cd299588ab173fb727092d3fbaca3075755f24c49adde18738496a8a0fbdaabd48b99a8b1f6fc19cb50ef451ce2a5bd6e7b0de672abeb95861cb4c01ffee3bce399b045e4d61a94a903e7f782b0d49c4dffd56624c3e08e44f4186b5397ad1da5b599603db3f7273bf764e328dc268520060357e1b82581eaa062ae22b302a1df3082fb660009a2d3bafdbe68fe98be2315ea54294ea323e093254bd42aee91c988cceb16d27c988ce0b4730e2918</t>
+  </si>
+  <si>
+    <t>3f80513415d0dd04904fbbe4548882dc22f409aed77292bf9c5039d0c675cc8a84b34dc175246f446394543ca01ba3e357973963cd47fa50e86375037e78bccf7693b2de996e633b19ac65ea571dc21ac8da5cd65e4b369831deca8225e9a3a48a0765e52bef48d37b47d8a2d32811499b8c1de351dbae5ecc2bf02f9decd4847fcadd8f520f2eaf1fc9e2b6641cd2a67443594744936168ce6a8ebfa607179d27ad7ddec442603d1e56275bcc7959698a6f26424c7ace6961a3922fe6461134385cfd42cddd7eca0a9b34839f55942b96793bd88b498f1c16dbcf48b7df5a215a76a18bddde923df3f0a687cbf204e4e43357f6390939993d92249064908a04</t>
+  </si>
+  <si>
+    <t>11a0dec507c0e51e10788d351413e6e2f1c0f24eb95a15674663e1c361dd54175df1c5d1c76c285f96ba69895eaabee7a6b336c1f879b5f87132d24a19b09197937ea9ad61440d2276cc28e76bab40a8d56d51e586fb4234f73cab5742f4d9784a385e30a4c2bb996a50bb695521f5f7ac326ba02e1c1d21db49e7b0e676d6830f35f489f6d17809b8ad34422f40cab7bb4f73875a21c5d15ed3eedba2652c8f3a5c0fdb25b6cc5669a1a2816450f34295107533a26a2c2998dd3a0612b8dcb352ad77441b93b92c99d7631fe1b8d5a12ff25f86e483e13a854f2f97283cbd22d4be33130b78da167c95f43cd8766377a50797e57b539fa14664f55d7f94e13a</t>
+  </si>
+  <si>
+    <t>0f551f991c78a28b09cbb3d457ed4d7e93a09a0b08ec83ec1608abff26aa544aab72973d1c109685c01043e755717eaf72251a5feeab2210f90ccedf0fad2da76dccf6dcfa3098449384da415c23c90f121d092ff0bf7cd4e14e0b4ce2a7d7467616432ae0efe62be9cd320e84673d125581d457021ff06113dec955612df94823f8664ef2b350ece72e5210ac37df02d39ef1d313306df8c6365e8e9463cf8ebe25ac1f773eee7541965113bd5b2670cb6ecc478bb96e54fdd2b48e6b5dc55e59bac26a9b07adf76aa413f59911e92ba50ab9aa3110102d92a71978f559b2cb2cbd9bb4006d9059ccd716e9dbdb96a1da24fa9b29ef34278fbf93688b3a4dab</t>
+  </si>
+  <si>
+    <t>8bb1532463e67b6400c4d0ddb770015da26e64a67b175a0aa00c6282524e670e764289313dd1ac2692f6a6b3f14caeeb19218b375a141c7ee36219733c029df6f39d223e2b030e94e698f86be2ab3fe988babf730c5a360706ba3e714f328e5474f3db5e1dd3ad103ab87c32ecce1368e9ddad16553f0110035bbb91b2ab8846b8b497bf7deb3a40d95a8c91b6bc24d863f30c4f1f0355f974b3a943f773b8af2e903c4c3809f58a4edfec3c2f5b3f5d34a821f04264f8f0e58b33d31cd4e5203c155cacf477b7f5094d1846b424489c93cbe042442e6b03dabe400edbaca5528aed316d5b1423964dd6ae94864b29add6c75efbc10ce013a8fe7472d4f56650</t>
+  </si>
+  <si>
+    <t>4dc329cc4bc982b6bb43005834658c4c5b370e76e76d3257bae486a7239ec32814c9c780e0c78fac8ddf8777d5530cd56ba47f2042dc9161e01e915896ccad538468a95ea2e706c852b9f645be1e1f77e94745196f8247d54488433d32df35894597d56c80ec6ef87ce347bd1217fa07a851d45cb8cfad6c5607a38e6404a4b35fe4a39d28450716548e122d9fc9c90debcda058ba620268bdb155ffde90be3dcd8a2a4968a60344e59503bfc3b6937a8517d37e9f0b8175489c758a7a3134323566fd5e552ee278190a7408999cd864a016f677a69853a1f6f8e6efcd2ab1d0233e22cc9a40a9cdd46f6c061f3f4fb429283f94bd2285193454a5db4291fc14</t>
+  </si>
+  <si>
+    <t>1e9027bd06d9f9ae1bba21d632bbc178bb996abe5735175771cab14375a876b1572e44b20163e0e50e8ba206d962fba81e9f34044989bbbc5bb8f0421e967a4e0d949293144559a65e38aea023f064e1fabbe1e899d76ebab953d32e4250f113fbd7830de2667c3fa5e40cd8d2c1874b13dd40b998a0185a6010c24c8f71959f389524ce9dc071d16336c84c53e0429e6459d72c191391232b967d589070f6d49088e1d87e187c900f9cc1b86225f1d8024181fc94cd6bb815a78007e173c9c42dce7e975dff776882322d16dc63925ce28353f892ada2be54f727098de7222595f9ace1a957a467ec3d17c28735b1fd2fee0d14e78ac6d597b659656e20fe73</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -78,13 +186,25 @@
     <t>Equity</t>
   </si>
   <si>
-    <t>Revenue</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
     <t>Net Income</t>
+  </si>
+  <si>
+    <t>Tea Sales</t>
+  </si>
+  <si>
+    <t>Farmer Market Sales</t>
+  </si>
+  <si>
+    <t>Misc Expenses</t>
+  </si>
+  <si>
+    <t>Tea Bottles</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Tea Ingredients</t>
   </si>
   <si>
     <t>Total Revenue</t>
@@ -448,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,28 +617,658 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>14700</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>5000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>5000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <v>1500</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>200</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
         <v>16</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>7500</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -536,31 +1286,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -568,10 +1318,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>14400</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +1331,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -589,37 +1339,109 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="C2">
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>14400</v>
       </c>
     </row>
   </sheetData>
